--- a/data/excel_manual_labeling/Daia_Manual_Labelling_granular.xlsx
+++ b/data/excel_manual_labeling/Daia_Manual_Labelling_granular.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annama/Documents/Master/SS 25/Data Analytics in Applications/Data Labelling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolashecker/PycharmProjects/DAiA/V1/daia-eon/data/excel_manual_labeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1462F5D0-74EB-3846-888A-3EB94699B593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598B43C8-0ECA-3D41-92ED-E8A0DB5713FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{D5A5125A-2A0E-AE4B-B7B2-07D8AB5715C0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16400" xr2:uid="{D5A5125A-2A0E-AE4B-B7B2-07D8AB5715C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3134,7 +3134,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3469,10 +3469,10 @@
   <dimension ref="A1:BE161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U156" sqref="U156"/>
+      <selection pane="bottomRight" activeCell="Z65" sqref="Z65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3483,7 +3483,7 @@
     <col min="5" max="5" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="2"/>
     <col min="7" max="7" width="15.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="2"/>
     <col min="12" max="12" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -6538,16 +6538,16 @@
       <c r="B120" s="2" t="s">
         <v>754</v>
       </c>
+      <c r="D120" s="2" t="s">
+        <v>755</v>
+      </c>
       <c r="E120" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="H120" s="2" t="s">
         <v>756</v>
       </c>
       <c r="I120" s="2" t="s">
